--- a/bugreport.xlsx
+++ b/bugreport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27255" windowHeight="9120"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Open" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">New!$A$2:$G$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">New!$A$2:$H$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Resolved!$A$2:$H$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Verified!$A$2:$H$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Open!$A$2:$H$2</definedName>
@@ -68,13 +68,13 @@
     <t>Reporter</t>
   </si>
   <si>
+    <t>Changed</t>
+  </si>
+  <si>
     <t>Product</t>
   </si>
   <si>
     <t>Resolution</t>
-  </si>
-  <si>
-    <t>Changed</t>
   </si>
 </sst>
 </file>
@@ -82,10 +82,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -124,23 +124,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,20 +147,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -176,8 +155,98 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -186,30 +255,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,52 +263,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,43 +295,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,133 +469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,17 +498,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,7 +526,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,6 +542,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,30 +587,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -586,166 +595,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -754,9 +754,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1085,7 +1082,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -1095,49 +1092,49 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" ht="16.5" spans="1:2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="5"/>
     </row>
     <row r="3" ht="16.5" spans="1:2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <f>New!B1</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <f>Resolved!B1</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <f>Verified!B1</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <f>Open!B1</f>
         <v>0</v>
       </c>
@@ -1154,13 +1151,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="3" max="3" width="24.25" customWidth="1"/>
     <col min="8" max="8" width="12.625"/>
@@ -1171,11 +1168,11 @@
         <v>6</v>
       </c>
       <c r="B1" s="1">
-        <f>COUNT(A3:A992)</f>
+        <f>COUNT(B3:B992)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1197,9 +1194,12 @@
       <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G16"/>
+  <autoFilter ref="A2:H2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -1213,7 +1213,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
@@ -1227,7 +1227,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1">
-        <f>COUNT(A3:A999)</f>
+        <f>COUNT(B3:B999)</f>
         <v>0</v>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -1248,13 +1248,13 @@
         <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1272,7 +1272,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
@@ -1282,7 +1282,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1">
-        <f>COUNT(A3:A999)</f>
+        <f>COUNT(B3:B999)</f>
         <v>0</v>
       </c>
     </row>
@@ -1291,7 +1291,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -1303,13 +1303,13 @@
         <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1322,15 +1322,15 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="30.875" customWidth="1"/>
@@ -1341,7 +1341,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1">
-        <f>COUNT(A3:A999)</f>
+        <f>COUNT(B3:B999)</f>
         <v>0</v>
       </c>
     </row>
@@ -1350,7 +1350,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -1362,188 +1362,14 @@
         <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="3"/>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="3"/>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="3"/>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="3"/>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="3"/>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="3"/>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="3"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="3"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="3"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="3"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="3"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="3"/>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="3"/>
-    </row>
-    <row r="25" ht="30" customHeight="1" spans="1:1">
-      <c r="A25" s="3"/>
-    </row>
-    <row r="26" ht="32" customHeight="1" spans="1:1">
-      <c r="A26" s="3"/>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="3"/>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="3"/>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="3"/>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="3"/>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="3"/>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="3"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="3"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="3"/>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="3"/>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="3"/>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="3"/>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="3"/>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="3"/>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="3"/>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="3"/>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="3"/>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="3"/>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="3"/>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="3"/>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="3"/>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="3"/>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="3"/>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="3"/>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="3"/>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="3"/>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="3"/>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="3"/>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="3"/>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="3"/>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="3"/>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="3"/>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="3"/>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="3"/>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="3"/>
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:H2"/>
